--- a/Team_Project/bin/Debug/회원가입정보.xlsx
+++ b/Team_Project/bin/Debug/회원가입정보.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\고재성\Desktop\New-repository\New-repository\Team_Project\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\고재성\Desktop\New-repository - 복사본\New-repository\Team_Project\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>고재성</t>
+  </si>
+  <si>
+    <t>병신</t>
+  </si>
+  <si>
+    <t>jaesung1@</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -352,14 +368,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C7" sqref="A1:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>2019603004</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
